--- a/docs/source/recursos/conservacion/tabla_def_con_26mzo21.xlsx
+++ b/docs/source/recursos/conservacion/tabla_def_con_26mzo21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\conservacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15B99B0-151B-4311-8D45-596EB6C12E35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28CB70E-CD59-4D5A-AD79-86A662155187}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20580" yWindow="-2025" windowWidth="13350" windowHeight="15390" xr2:uid="{F29FCC71-4D68-4D0A-A197-72AF44C9C956}"/>
+    <workbookView xWindow="20580" yWindow="-2025" windowWidth="10440" windowHeight="15390" xr2:uid="{F29FCC71-4D68-4D0A-A197-72AF44C9C956}"/>
   </bookViews>
   <sheets>
     <sheet name="definiciones" sheetId="4" r:id="rId1"/>
@@ -269,9 +269,6 @@
     <t>Recursos genéticos para agricultura y biotecnología. Frecuencia de las siete especies publicadas por CONABIO que se distribuyen potencialmente en menos del 50% del estado. A las áreas de distribución se le eliminaron las áreas de agricultura de riego, los asentamientos humanos y cuerpos de agua.</t>
   </si>
   <si>
-    <t>Presencia de áreas naturales protegidas con enfoque biocultural (Reserva biocultural del Puuc, Kabáh y San Juan BautistaTabí y Anexa Sacnité).</t>
-  </si>
-  <si>
     <t>Índice de Integridad ecológica para depredadores superiores, como la capacidad  para mantener procesos ecológicos auto-organizados y estables en sitemas naturales (Mora, 2017).</t>
   </si>
   <si>
@@ -285,6 +282,9 @@
   </si>
   <si>
     <t>Zonas potenciales a ser reforestadas o restauradas con base en el cambio de cobertura 2002-2014.</t>
+  </si>
+  <si>
+    <t>Presencia de áreas naturales protegidas con enfoque biocultural (Reserva Biocultural del Puuc, Kabah y San Juan BautistaTabí y Anexa Sacnité).</t>
   </si>
 </sst>
 </file>
@@ -759,7 +759,7 @@
   <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,7 +1325,7 @@
         <v>43</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C66" s="24">
         <v>0.28999999999999998</v>
@@ -1416,7 +1416,7 @@
         <v>57</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C75" s="19">
         <v>0.67300000000000004</v>
@@ -1428,7 +1428,7 @@
         <v>58</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C76" s="19">
         <v>0.22500000000000001</v>
@@ -1506,7 +1506,7 @@
         <v>63</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C84" s="19">
         <v>0.128</v>
@@ -1518,7 +1518,7 @@
         <v>62</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C85" s="19">
         <v>0.11899999999999999</v>
@@ -1530,7 +1530,7 @@
         <v>64</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C86" s="19">
         <v>6.3E-2</v>
